--- a/TXT/Reprise_données_Demandes/reprise_de_données-Qualification.xlsx
+++ b/TXT/Reprise_données_Demandes/reprise_de_données-Qualification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TMAconnect\txt\Reprise_données_Demandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA2E88-C061-4FAB-9195-5A6F03A3F622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A015AC3-5B16-415C-9AAC-FFD8E90BF25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFA479FD-4A16-4528-9DA1-AEFD138866D9}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>IdQual (int AUTO INCREMENT)</t>
   </si>
   <si>
-    <t>libelle (VARCHAR (50) )</t>
-  </si>
-  <si>
     <t>fac_eval (int)</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>fac_rct (int)</t>
+  </si>
+  <si>
+    <t>libQualif(VARCHAR (50) )</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" activeCellId="1" sqref="D11 E23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
